--- a/coun.xlsx
+++ b/coun.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$127</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="616">
   <si>
     <t>非洲</t>
   </si>
@@ -1632,6 +1633,390 @@
   </si>
   <si>
     <t>ymj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>snje</t>
+  </si>
+  <si>
+    <t>slla</t>
+  </si>
+  <si>
+    <t>ktdw</t>
+  </si>
+  <si>
+    <t>sml</t>
+  </si>
+  <si>
+    <t>kml</t>
+  </si>
+  <si>
+    <t>nsd</t>
+  </si>
+  <si>
+    <t>sse</t>
+  </si>
+  <si>
+    <t>jny</t>
+  </si>
+  <si>
+    <t>zby</t>
+  </si>
+  <si>
+    <t>msbk</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>nmby</t>
+  </si>
+  <si>
+    <t>mltny</t>
+  </si>
+  <si>
+    <t>agl</t>
+  </si>
+  <si>
+    <t>jbl</t>
+  </si>
+  <si>
+    <t>aseby</t>
+  </si>
+  <si>
+    <t>kny</t>
+  </si>
+  <si>
+    <t>nrly</t>
+  </si>
+  <si>
+    <t>zd</t>
+  </si>
+  <si>
+    <t>ggb</t>
+  </si>
+  <si>
+    <t>jbbw</t>
+  </si>
+  <si>
+    <t>aejly</t>
+  </si>
+  <si>
+    <t>tsny</t>
+  </si>
+  <si>
+    <t>bld</t>
+  </si>
+  <si>
+    <t>fdj</t>
+  </si>
+  <si>
+    <t>wgd</t>
+  </si>
+  <si>
+    <t>gby</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>lwd</t>
+  </si>
+  <si>
+    <t>mlg</t>
+  </si>
+  <si>
+    <t>mdjsj</t>
+  </si>
+  <si>
+    <t>tns</t>
+  </si>
+  <si>
+    <t>lby</t>
+  </si>
+  <si>
+    <t>aj</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>xjp</t>
+  </si>
+  <si>
+    <t>ddw</t>
+  </si>
+  <si>
+    <t>mlxy</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>jpz</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>wl</t>
+  </si>
+  <si>
+    <t>bjst</t>
+  </si>
+  <si>
+    <t>sllk</t>
+  </si>
+  <si>
+    <t>mjlg</t>
+  </si>
+  <si>
+    <t>nbe</t>
+  </si>
+  <si>
+    <t>medf</t>
+  </si>
+  <si>
+    <t>alq</t>
+  </si>
+  <si>
+    <t>kwt</t>
+  </si>
+  <si>
+    <t>teq</t>
+  </si>
+  <si>
+    <t>kte</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>lbn</t>
+  </si>
+  <si>
+    <t>stalb</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>yl</t>
+  </si>
+  <si>
+    <t>ylk</t>
+  </si>
+  <si>
+    <t>afh</t>
+  </si>
+  <si>
+    <t>asbj</t>
+  </si>
+  <si>
+    <t>gljy</t>
+  </si>
+  <si>
+    <t>ymny</t>
+  </si>
+  <si>
+    <t>hskst</t>
+  </si>
+  <si>
+    <t>jejst</t>
+  </si>
+  <si>
+    <t>tjkst</t>
+  </si>
+  <si>
+    <t>wzbkst</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>ydnxy</t>
+  </si>
+  <si>
+    <t>flb</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>adl</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>sewy</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>bjly</t>
+  </si>
+  <si>
+    <t>slfk</t>
+  </si>
+  <si>
+    <t>aebny</t>
+  </si>
+  <si>
+    <t>kldy</t>
+  </si>
+  <si>
+    <t>bh</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>asny</t>
+  </si>
+  <si>
+    <t>ltw</t>
+  </si>
+  <si>
+    <t>slwny</t>
+  </si>
+  <si>
+    <t>xyl</t>
+  </si>
+  <si>
+    <t>mqd</t>
+  </si>
+  <si>
+    <t>lmny</t>
+  </si>
+  <si>
+    <t>ltwy</t>
+  </si>
+  <si>
+    <t>wkl</t>
+  </si>
+  <si>
+    <t>bels</t>
+  </si>
+  <si>
+    <t>medw</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>pty</t>
+  </si>
+  <si>
+    <t>ydl</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>xxl</t>
+  </si>
+  <si>
+    <t>bbyxjny</t>
+  </si>
+  <si>
+    <t>smy</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>mklnxylb</t>
+  </si>
+  <si>
+    <t>kkqd</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>wnat</t>
+  </si>
+  <si>
+    <t>zl</t>
+  </si>
+  <si>
+    <t>gyn</t>
+  </si>
+  <si>
+    <t>blwy</t>
+  </si>
+  <si>
+    <t>wlg</t>
+  </si>
+  <si>
+    <t>wnrl</t>
+  </si>
+  <si>
+    <t>sln</t>
+  </si>
+  <si>
+    <t>egde</t>
+  </si>
+  <si>
+    <t>asdlj</t>
+  </si>
+  <si>
+    <t>bnm</t>
+  </si>
+  <si>
+    <t>sewd</t>
+  </si>
+  <si>
+    <t>dmnj</t>
+  </si>
+  <si>
+    <t>tlndhdbg</t>
+  </si>
+  <si>
+    <t>atghbbd</t>
+  </si>
+  <si>
+    <t>dmnk</t>
+  </si>
+  <si>
+    <t>glnd</t>
+  </si>
+  <si>
+    <t>bbsd</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>ymj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class=""counPart""&gt;
+      &lt;div class=""country"" id=""sd""&gt;苏丹&lt;/div&gt;
+      &lt;div class=""desc""&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +2079,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1722,6 +2107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,7 +2145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1787,29 +2178,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2120,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,6 +2531,7 @@
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="11" max="11" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -2156,7 +2558,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2188,6 +2590,7 @@
         <f>VLOOKUP(H2,B:G,6,0)</f>
         <v>y</v>
       </c>
+      <c r="K2" s="17"/>
       <c r="N2" s="1" t="s">
         <v>347</v>
       </c>
@@ -2200,7 +2603,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2640,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2274,11 +2677,11 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2306,11 +2709,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2336,11 +2739,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2364,11 +2767,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2394,11 +2797,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2424,11 +2827,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2454,11 +2857,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2484,11 +2887,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2514,11 +2917,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2544,11 +2947,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
@@ -2574,11 +2977,11 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
@@ -2604,11 +3007,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
@@ -2634,11 +3037,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
@@ -2664,11 +3067,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2694,11 +3097,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
@@ -2724,11 +3127,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
@@ -2754,11 +3157,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
@@ -2784,11 +3187,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
@@ -2814,11 +3217,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6" t="s">
         <v>46</v>
       </c>
@@ -2844,11 +3247,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
@@ -2874,11 +3277,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
@@ -2904,11 +3307,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
@@ -2934,11 +3337,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -2964,11 +3367,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2994,11 +3397,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
@@ -3024,11 +3427,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
@@ -3054,11 +3457,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
@@ -3084,11 +3487,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
@@ -3114,7 +3517,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
@@ -3146,9 +3549,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="8" t="s">
-        <v>69</v>
+        <v>490</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>70</v>
@@ -3178,7 +3581,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
@@ -3210,7 +3613,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>75</v>
       </c>
@@ -3242,7 +3645,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>78</v>
       </c>
@@ -3274,8 +3677,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3306,7 +3709,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3340,11 +3743,11 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3372,11 +3775,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
@@ -3402,11 +3805,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="6" t="s">
         <v>93</v>
       </c>
@@ -3432,11 +3835,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="6" t="s">
         <v>95</v>
       </c>
@@ -3462,11 +3865,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="6" t="s">
         <v>97</v>
       </c>
@@ -3492,7 +3895,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="8" t="s">
         <v>99</v>
       </c>
@@ -3524,7 +3927,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="8" t="s">
         <v>102</v>
       </c>
@@ -3556,7 +3959,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="8" t="s">
         <v>105</v>
       </c>
@@ -3588,7 +3991,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="8" t="s">
         <v>108</v>
       </c>
@@ -3620,7 +4023,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="8" t="s">
         <v>111</v>
       </c>
@@ -3652,7 +4055,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="8" t="s">
         <v>114</v>
       </c>
@@ -3684,7 +4087,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="8" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +4119,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="8" t="s">
         <v>120</v>
       </c>
@@ -3748,7 +4151,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="8" t="s">
         <v>123</v>
       </c>
@@ -3780,7 +4183,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="8" t="s">
         <v>126</v>
       </c>
@@ -3812,7 +4215,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="8" t="s">
         <v>129</v>
       </c>
@@ -3844,7 +4247,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="8" t="s">
         <v>132</v>
       </c>
@@ -3876,7 +4279,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="8" t="s">
         <v>135</v>
       </c>
@@ -3908,7 +4311,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="8" t="s">
         <v>138</v>
       </c>
@@ -3940,7 +4343,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="8" t="s">
         <v>141</v>
       </c>
@@ -3972,7 +4375,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="8" t="s">
         <v>144</v>
       </c>
@@ -4004,7 +4407,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="8" t="s">
         <v>147</v>
       </c>
@@ -4036,7 +4439,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="8" t="s">
         <v>150</v>
       </c>
@@ -4068,7 +4471,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="8" t="s">
         <v>153</v>
       </c>
@@ -4100,7 +4503,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="8" t="s">
         <v>156</v>
       </c>
@@ -4132,7 +4535,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="8" t="s">
         <v>159</v>
       </c>
@@ -4164,7 +4567,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="8" t="s">
         <v>162</v>
       </c>
@@ -4196,7 +4599,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="8" t="s">
         <v>165</v>
       </c>
@@ -4228,7 +4631,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="11"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="8" t="s">
         <v>168</v>
       </c>
@@ -4260,7 +4663,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="11"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="8" t="s">
         <v>171</v>
       </c>
@@ -4292,7 +4695,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="11"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="8" t="s">
         <v>174</v>
       </c>
@@ -4324,7 +4727,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="8" t="s">
         <v>177</v>
       </c>
@@ -4356,7 +4759,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="8" t="s">
         <v>180</v>
       </c>
@@ -4388,7 +4791,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="11"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="8" t="s">
         <v>183</v>
       </c>
@@ -4413,7 +4816,7 @@
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="8" t="s">
         <v>186</v>
       </c>
@@ -4438,7 +4841,7 @@
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -4465,7 +4868,7 @@
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="11"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
         <v>193</v>
       </c>
@@ -4490,7 +4893,7 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="11"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="5" t="s">
         <v>196</v>
       </c>
@@ -4515,7 +4918,7 @@
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="11"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="8" t="s">
         <v>199</v>
       </c>
@@ -4540,7 +4943,7 @@
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="11"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="8" t="s">
         <v>202</v>
       </c>
@@ -4563,7 +4966,7 @@
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="11"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="8" t="s">
         <v>205</v>
       </c>
@@ -4588,7 +4991,7 @@
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="8" t="s">
         <v>207</v>
       </c>
@@ -4611,7 +5014,7 @@
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="11"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="8" t="s">
         <v>209</v>
       </c>
@@ -4634,11 +5037,11 @@
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="15" t="s">
         <v>212</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -4659,11 +5062,11 @@
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="11"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C84" s="12"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="6" t="s">
         <v>214</v>
       </c>
@@ -4682,11 +5085,11 @@
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="11"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="12"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="6" t="s">
         <v>216</v>
       </c>
@@ -4705,11 +5108,11 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="11"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="6" t="s">
         <v>218</v>
       </c>
@@ -4726,11 +5129,11 @@
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="15" t="s">
         <v>220</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4751,11 +5154,11 @@
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="6" t="s">
         <v>222</v>
       </c>
@@ -4774,11 +5177,11 @@
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="12"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="6" t="s">
         <v>224</v>
       </c>
@@ -4797,7 +5200,7 @@
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="8" t="s">
         <v>226</v>
       </c>
@@ -4822,7 +5225,7 @@
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="8" t="s">
         <v>229</v>
       </c>
@@ -4847,7 +5250,7 @@
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="11"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="8" t="s">
         <v>232</v>
       </c>
@@ -4872,7 +5275,7 @@
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="8" t="s">
         <v>235</v>
       </c>
@@ -4897,7 +5300,7 @@
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="11"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="8" t="s">
         <v>238</v>
       </c>
@@ -4922,7 +5325,7 @@
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="11"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="8" t="s">
         <v>241</v>
       </c>
@@ -4947,7 +5350,7 @@
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="11"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="8" t="s">
         <v>244</v>
       </c>
@@ -4972,7 +5375,7 @@
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="11"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="5" t="s">
         <v>246</v>
       </c>
@@ -4997,7 +5400,7 @@
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="11"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="5" t="s">
         <v>249</v>
       </c>
@@ -5022,7 +5425,7 @@
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="5" t="s">
         <v>252</v>
       </c>
@@ -5047,7 +5450,7 @@
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="11"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="5" t="s">
         <v>255</v>
       </c>
@@ -5072,7 +5475,7 @@
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -5099,7 +5502,7 @@
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="11"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="5" t="s">
         <v>262</v>
       </c>
@@ -5124,7 +5527,7 @@
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="11"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="5" t="s">
         <v>265</v>
       </c>
@@ -5149,7 +5552,7 @@
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="11"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="5" t="s">
         <v>268</v>
       </c>
@@ -5172,7 +5575,7 @@
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="11"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="5" t="s">
         <v>270</v>
       </c>
@@ -5197,11 +5600,11 @@
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="11"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="15" t="s">
         <v>274</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -5220,11 +5623,11 @@
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C107" s="12"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="6" t="s">
         <v>275</v>
       </c>
@@ -5241,11 +5644,11 @@
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C108" s="12"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="6" t="s">
         <v>276</v>
       </c>
@@ -5264,7 +5667,7 @@
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="5" t="s">
         <v>278</v>
       </c>
@@ -5289,7 +5692,7 @@
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -5316,7 +5719,7 @@
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="11"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="5" t="s">
         <v>285</v>
       </c>
@@ -5341,7 +5744,7 @@
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="11"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="5" t="s">
         <v>288</v>
       </c>
@@ -5366,7 +5769,7 @@
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="11"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="5" t="s">
         <v>291</v>
       </c>
@@ -5391,7 +5794,7 @@
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="11"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="5" t="s">
         <v>294</v>
       </c>
@@ -5416,7 +5819,7 @@
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="11"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="5" t="s">
         <v>297</v>
       </c>
@@ -5441,7 +5844,7 @@
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="11"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="5" t="s">
         <v>300</v>
       </c>
@@ -5466,7 +5869,7 @@
       <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -5493,7 +5896,7 @@
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="11"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="8" t="s">
         <v>307</v>
       </c>
@@ -5516,7 +5919,7 @@
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="11"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="5" t="s">
         <v>309</v>
       </c>
@@ -5539,7 +5942,7 @@
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="11"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="5" t="s">
         <v>311</v>
       </c>
@@ -5564,7 +5967,7 @@
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="11"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="5" t="s">
         <v>314</v>
       </c>
@@ -5589,7 +5992,7 @@
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="11"/>
+      <c r="A122" s="14"/>
       <c r="B122" s="5" t="s">
         <v>317</v>
       </c>
@@ -5614,7 +6017,7 @@
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="11"/>
+      <c r="A123" s="14"/>
       <c r="B123" s="5" t="s">
         <v>320</v>
       </c>
@@ -5639,7 +6042,7 @@
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="11"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="5" t="s">
         <v>323</v>
       </c>
@@ -5664,7 +6067,7 @@
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="11"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="5" t="s">
         <v>326</v>
       </c>
@@ -5689,7 +6092,7 @@
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="11"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="5" t="s">
         <v>329</v>
       </c>
@@ -5714,7 +6117,7 @@
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="11"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="5" t="s">
         <v>332</v>
       </c>
@@ -6164,14 +6567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
@@ -6180,74 +6584,74 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>358</v>
       </c>
       <c r="C2" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B2&amp;"""&gt;"&amp;A2&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="C2:C33" si="0">"&lt;li&gt;&lt;a href=""#"&amp;B2&amp;"""&gt;"&amp;A2&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="#fz"&gt;非洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>355</v>
       </c>
       <c r="B3" t="s">
         <v>397</v>
       </c>
       <c r="C3" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B3&amp;"""&gt;"&amp;A3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#yz"&gt;亚洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>356</v>
       </c>
       <c r="B4" t="s">
         <v>434</v>
       </c>
       <c r="C4" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B4&amp;"""&gt;"&amp;A4&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#oz"&gt;欧洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>357</v>
       </c>
       <c r="B5" t="s">
         <v>460</v>
       </c>
       <c r="C5" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B5&amp;"""&gt;"&amp;A5&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#dyz"&gt;大洋洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>470</v>
       </c>
       <c r="C6" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B6&amp;"""&gt;"&amp;A6&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#nmz"&gt;南美洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>478</v>
       </c>
       <c r="C7" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B7&amp;"""&gt;"&amp;A7&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#bmz"&gt;北美洲&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6259,7 +6663,7 @@
         <v>359</v>
       </c>
       <c r="C8" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B8&amp;"""&gt;"&amp;A8&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#sd"&gt;苏丹&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6271,7 +6675,7 @@
         <v>360</v>
       </c>
       <c r="C9" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B9&amp;"""&gt;"&amp;A9&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#nf"&gt;南非&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6283,7 +6687,7 @@
         <v>361</v>
       </c>
       <c r="C10" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B10&amp;"""&gt;"&amp;A10&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#snje"&gt;塞内加尔&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6295,7 +6699,7 @@
         <v>362</v>
       </c>
       <c r="C11" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B11&amp;"""&gt;"&amp;A11&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#slla"&gt;塞拉利昂&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6307,7 +6711,7 @@
         <v>363</v>
       </c>
       <c r="C12" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B12&amp;"""&gt;"&amp;A12&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#ktdw"&gt;科特迪瓦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6319,7 +6723,7 @@
         <v>364</v>
       </c>
       <c r="C13" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B13&amp;"""&gt;"&amp;A13&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#sml"&gt;索马里&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6331,7 +6735,7 @@
         <v>366</v>
       </c>
       <c r="C14" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B14&amp;"""&gt;"&amp;A14&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#kml"&gt;喀麦隆&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6343,7 +6747,7 @@
         <v>367</v>
       </c>
       <c r="C15" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B15&amp;"""&gt;"&amp;A15&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#nsd"&gt;南苏丹&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6355,7 +6759,7 @@
         <v>368</v>
       </c>
       <c r="C16" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B16&amp;"""&gt;"&amp;A16&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#sse"&gt;塞舌尔&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6367,7 +6771,7 @@
         <v>369</v>
       </c>
       <c r="C17" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B17&amp;"""&gt;"&amp;A17&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#jny"&gt;几内亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6379,7 +6783,7 @@
         <v>370</v>
       </c>
       <c r="C18" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B18&amp;"""&gt;"&amp;A18&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#jny"&gt;加纳&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6391,7 +6795,7 @@
         <v>371</v>
       </c>
       <c r="C19" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B19&amp;"""&gt;"&amp;A19&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#zby"&gt;赞比亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6403,7 +6807,7 @@
         <v>372</v>
       </c>
       <c r="C20" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B20&amp;"""&gt;"&amp;A20&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#msbk"&gt;莫桑比克&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6415,7 +6819,7 @@
         <v>373</v>
       </c>
       <c r="C21" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B21&amp;"""&gt;"&amp;A21&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#jp"&gt;加蓬&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6427,7 +6831,7 @@
         <v>374</v>
       </c>
       <c r="C22" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B22&amp;"""&gt;"&amp;A22&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#nmby"&gt;纳米比亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6439,7 +6843,7 @@
         <v>375</v>
       </c>
       <c r="C23" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B23&amp;"""&gt;"&amp;A23&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#mltny"&gt;毛里塔尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6451,7 +6855,7 @@
         <v>376</v>
       </c>
       <c r="C24" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B24&amp;"""&gt;"&amp;A24&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#agl"&gt;安哥拉&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6463,7 +6867,7 @@
         <v>377</v>
       </c>
       <c r="C25" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B25&amp;"""&gt;"&amp;A25&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#jbl"&gt;吉布提&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6475,7 +6879,7 @@
         <v>378</v>
       </c>
       <c r="C26" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B26&amp;"""&gt;"&amp;A26&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#aseby"&gt;埃塞俄比亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6487,7 +6891,7 @@
         <v>379</v>
       </c>
       <c r="C27" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B27&amp;"""&gt;"&amp;A27&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#kny"&gt;肯尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6499,7 +6903,7 @@
         <v>380</v>
       </c>
       <c r="C28" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B28&amp;"""&gt;"&amp;A28&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#nrly"&gt;尼日利亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6511,7 +6915,7 @@
         <v>381</v>
       </c>
       <c r="C29" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B29&amp;"""&gt;"&amp;A29&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#zd"&gt;乍得&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6523,7 +6927,7 @@
         <v>382</v>
       </c>
       <c r="C30" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B30&amp;"""&gt;"&amp;A30&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#ggb"&gt;刚果布&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6535,7 +6939,7 @@
         <v>383</v>
       </c>
       <c r="C31" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B31&amp;"""&gt;"&amp;A31&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#jbbw"&gt;津巴布韦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6547,7 +6951,7 @@
         <v>384</v>
       </c>
       <c r="C32" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B32&amp;"""&gt;"&amp;A32&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#aejly"&gt;阿尔及利亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6559,7 +6963,7 @@
         <v>385</v>
       </c>
       <c r="C33" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B33&amp;"""&gt;"&amp;A33&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;&lt;a href="#tsny"&gt;坦桑尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6571,7 +6975,7 @@
         <v>386</v>
       </c>
       <c r="C34" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B34&amp;"""&gt;"&amp;A34&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="C34:C65" si="1">"&lt;li&gt;&lt;a href=""#"&amp;B34&amp;"""&gt;"&amp;A34&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="#bld"&gt;布隆迪&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6583,7 +6987,7 @@
         <v>387</v>
       </c>
       <c r="C35" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B35&amp;"""&gt;"&amp;A35&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#fdj"&gt;佛得角&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6595,7 +6999,7 @@
         <v>388</v>
       </c>
       <c r="C36" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B36&amp;"""&gt;"&amp;A36&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#wgd"&gt;乌干达&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6607,7 +7011,7 @@
         <v>389</v>
       </c>
       <c r="C37" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B37&amp;"""&gt;"&amp;A37&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#gby"&gt;冈比亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6619,7 +7023,7 @@
         <v>390</v>
       </c>
       <c r="C38" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B38&amp;"""&gt;"&amp;A38&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#dg"&gt;多哥&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6631,7 +7035,7 @@
         <v>391</v>
       </c>
       <c r="C39" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B39&amp;"""&gt;"&amp;A39&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#lwd"&gt;卢旺达&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6643,7 +7047,7 @@
         <v>392</v>
       </c>
       <c r="C40" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B40&amp;"""&gt;"&amp;A40&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#mlg"&gt;摩洛哥&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6655,7 +7059,7 @@
         <v>393</v>
       </c>
       <c r="C41" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B41&amp;"""&gt;"&amp;A41&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#mdjsj"&gt;马达加斯加&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6667,7 +7071,7 @@
         <v>394</v>
       </c>
       <c r="C42" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B42&amp;"""&gt;"&amp;A42&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#tns"&gt;突尼斯&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6679,7 +7083,7 @@
         <v>395</v>
       </c>
       <c r="C43" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B43&amp;"""&gt;"&amp;A43&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#lby"&gt;利比亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6691,7 +7095,7 @@
         <v>396</v>
       </c>
       <c r="C44" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B44&amp;"""&gt;"&amp;A44&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#aj"&gt;埃及&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6703,7 +7107,7 @@
         <v>398</v>
       </c>
       <c r="C45" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B45&amp;"""&gt;"&amp;A45&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#hg"&gt;韩国&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6715,7 +7119,7 @@
         <v>399</v>
       </c>
       <c r="C46" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B46&amp;"""&gt;"&amp;A46&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#mg"&gt;蒙古&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6727,7 +7131,7 @@
         <v>400</v>
       </c>
       <c r="C47" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B47&amp;"""&gt;"&amp;A47&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#xjp"&gt;新加坡&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6739,7 +7143,7 @@
         <v>401</v>
       </c>
       <c r="C48" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B48&amp;"""&gt;"&amp;A48&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#ddw"&gt;东帝汶&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6751,7 +7155,7 @@
         <v>402</v>
       </c>
       <c r="C49" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B49&amp;"""&gt;"&amp;A49&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#mlxy"&gt;马来西亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6763,7 +7167,7 @@
         <v>403</v>
       </c>
       <c r="C50" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B50&amp;"""&gt;"&amp;A50&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#md"&gt;缅甸&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6775,7 +7179,7 @@
         <v>404</v>
       </c>
       <c r="C51" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B51&amp;"""&gt;"&amp;A51&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#jpz"&gt;柬埔寨&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6787,7 +7191,7 @@
         <v>405</v>
       </c>
       <c r="C52" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B52&amp;"""&gt;"&amp;A52&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#yn"&gt;越南&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6799,7 +7203,7 @@
         <v>406</v>
       </c>
       <c r="C53" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B53&amp;"""&gt;"&amp;A53&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#lg"&gt;老挝&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6811,7 +7215,7 @@
         <v>407</v>
       </c>
       <c r="C54" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B54&amp;"""&gt;"&amp;A54&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#wl"&gt;文莱&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6823,7 +7227,7 @@
         <v>408</v>
       </c>
       <c r="C55" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B55&amp;"""&gt;"&amp;A55&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#bjst"&gt;巴基斯坦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6835,7 +7239,7 @@
         <v>409</v>
       </c>
       <c r="C56" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B56&amp;"""&gt;"&amp;A56&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#sllk"&gt;斯里兰卡&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6847,7 +7251,7 @@
         <v>410</v>
       </c>
       <c r="C57" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B57&amp;"""&gt;"&amp;A57&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#mjlg"&gt;孟加拉国&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6859,7 +7263,7 @@
         <v>411</v>
       </c>
       <c r="C58" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B58&amp;"""&gt;"&amp;A58&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#nbe"&gt;尼泊尔&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6871,7 +7275,7 @@
         <v>412</v>
       </c>
       <c r="C59" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B59&amp;"""&gt;"&amp;A59&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#medf"&gt;马尔代夫&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6883,7 +7287,7 @@
         <v>413</v>
       </c>
       <c r="C60" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B60&amp;"""&gt;"&amp;A60&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#alq"&gt;阿联酋&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6895,7 +7299,7 @@
         <v>414</v>
       </c>
       <c r="C61" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B61&amp;"""&gt;"&amp;A61&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#kwt"&gt;科威特&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6907,7 +7311,7 @@
         <v>415</v>
       </c>
       <c r="C62" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B62&amp;"""&gt;"&amp;A62&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#teq"&gt;土耳其&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6919,7 +7323,7 @@
         <v>416</v>
       </c>
       <c r="C63" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B63&amp;"""&gt;"&amp;A63&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#kte"&gt;卡塔尔&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6931,7 +7335,7 @@
         <v>417</v>
       </c>
       <c r="C64" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B64&amp;"""&gt;"&amp;A64&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#am"&gt;阿曼&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6943,7 +7347,7 @@
         <v>418</v>
       </c>
       <c r="C65" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B65&amp;"""&gt;"&amp;A65&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;&lt;a href="#lbn"&gt;黎巴嫩&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6955,7 +7359,7 @@
         <v>419</v>
       </c>
       <c r="C66" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B66&amp;"""&gt;"&amp;A66&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="C66:C97" si="2">"&lt;li&gt;&lt;a href=""#"&amp;B66&amp;"""&gt;"&amp;A66&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="#stalb"&gt;沙特阿拉伯&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6967,7 +7371,7 @@
         <v>420</v>
       </c>
       <c r="C67" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B67&amp;"""&gt;"&amp;A67&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#bl"&gt;巴林&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6979,7 +7383,7 @@
         <v>421</v>
       </c>
       <c r="C68" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B68&amp;"""&gt;"&amp;A68&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#yl"&gt;伊朗&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -6991,7 +7395,7 @@
         <v>422</v>
       </c>
       <c r="C69" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B69&amp;"""&gt;"&amp;A69&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#ylk"&gt;伊拉克&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7003,7 +7407,7 @@
         <v>423</v>
       </c>
       <c r="C70" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B70&amp;"""&gt;"&amp;A70&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#afh"&gt;阿富汗&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7015,7 +7419,7 @@
         <v>424</v>
       </c>
       <c r="C71" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B71&amp;"""&gt;"&amp;A71&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#asbj"&gt;阿塞拜疆&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7027,7 +7431,7 @@
         <v>425</v>
       </c>
       <c r="C72" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B72&amp;"""&gt;"&amp;A72&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#gljy"&gt;格鲁吉亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7039,7 +7443,7 @@
         <v>426</v>
       </c>
       <c r="C73" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B73&amp;"""&gt;"&amp;A73&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#ymny"&gt;亚美尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7051,7 +7455,7 @@
         <v>427</v>
       </c>
       <c r="C74" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B74&amp;"""&gt;"&amp;A74&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#hskst"&gt;哈萨克斯坦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7063,7 +7467,7 @@
         <v>428</v>
       </c>
       <c r="C75" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B75&amp;"""&gt;"&amp;A75&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#jejst"&gt;吉尔吉斯斯坦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7075,7 +7479,7 @@
         <v>429</v>
       </c>
       <c r="C76" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B76&amp;"""&gt;"&amp;A76&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#tjkst"&gt;塔吉克斯坦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7087,7 +7491,7 @@
         <v>430</v>
       </c>
       <c r="C77" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B77&amp;"""&gt;"&amp;A77&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#wzbkst"&gt;乌兹别克斯坦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7099,7 +7503,7 @@
         <v>431</v>
       </c>
       <c r="C78" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B78&amp;"""&gt;"&amp;A78&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#tg"&gt;泰国&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7111,7 +7515,7 @@
         <v>432</v>
       </c>
       <c r="C79" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B79&amp;"""&gt;"&amp;A79&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#ydnxy"&gt;印度尼西亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7123,7 +7527,7 @@
         <v>433</v>
       </c>
       <c r="C80" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B80&amp;"""&gt;"&amp;A80&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#flb"&gt;菲律宾&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7135,7 +7539,7 @@
         <v>435</v>
       </c>
       <c r="C81" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B81&amp;"""&gt;"&amp;A81&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#el"&gt;俄罗斯&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7147,7 +7551,7 @@
         <v>436</v>
       </c>
       <c r="C82" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B82&amp;"""&gt;"&amp;A82&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#adl"&gt;奥地利&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7159,7 +7563,7 @@
         <v>437</v>
       </c>
       <c r="C83" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B83&amp;"""&gt;"&amp;A83&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#xl"&gt;希腊&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7171,7 +7575,7 @@
         <v>420</v>
       </c>
       <c r="C84" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B84&amp;"""&gt;"&amp;A84&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#bl"&gt;波兰&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7183,7 +7587,7 @@
         <v>438</v>
       </c>
       <c r="C85" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B85&amp;"""&gt;"&amp;A85&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#sewy"&gt;塞尔维亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7195,7 +7599,7 @@
         <v>439</v>
       </c>
       <c r="C86" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B86&amp;"""&gt;"&amp;A86&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#jk"&gt;捷克&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7207,7 +7611,7 @@
         <v>440</v>
       </c>
       <c r="C87" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B87&amp;"""&gt;"&amp;A87&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#bjly"&gt;保加利亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7219,7 +7623,7 @@
         <v>441</v>
       </c>
       <c r="C88" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B88&amp;"""&gt;"&amp;A88&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#slfk"&gt;斯洛伐克&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7231,7 +7635,7 @@
         <v>442</v>
       </c>
       <c r="C89" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B89&amp;"""&gt;"&amp;A89&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#aebny"&gt;阿尔巴尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7243,7 +7647,7 @@
         <v>443</v>
       </c>
       <c r="C90" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B90&amp;"""&gt;"&amp;A90&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#kldy"&gt;克罗地亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7255,7 +7659,7 @@
         <v>444</v>
       </c>
       <c r="C91" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B91&amp;"""&gt;"&amp;A91&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#bh"&gt;波黑&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7267,7 +7671,7 @@
         <v>445</v>
       </c>
       <c r="C92" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B92&amp;"""&gt;"&amp;A92&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#hs"&gt;黑山&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7279,7 +7683,7 @@
         <v>446</v>
       </c>
       <c r="C93" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B93&amp;"""&gt;"&amp;A93&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#asny"&gt;爱沙尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7291,7 +7695,7 @@
         <v>447</v>
       </c>
       <c r="C94" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B94&amp;"""&gt;"&amp;A94&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#ltw"&gt;立陶宛&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7303,7 +7707,7 @@
         <v>448</v>
       </c>
       <c r="C95" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B95&amp;"""&gt;"&amp;A95&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#slwny"&gt;斯洛文尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7315,7 +7719,7 @@
         <v>449</v>
       </c>
       <c r="C96" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B96&amp;"""&gt;"&amp;A96&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#xyl"&gt;匈牙利&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7327,7 +7731,7 @@
         <v>450</v>
       </c>
       <c r="C97" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B97&amp;"""&gt;"&amp;A97&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;&lt;a href="#mqd"&gt;马其顿&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7339,7 +7743,7 @@
         <v>451</v>
       </c>
       <c r="C98" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B98&amp;"""&gt;"&amp;A98&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="C98:C129" si="3">"&lt;li&gt;&lt;a href=""#"&amp;B98&amp;"""&gt;"&amp;A98&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="#lmny"&gt;罗马尼亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7351,7 +7755,7 @@
         <v>452</v>
       </c>
       <c r="C99" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B99&amp;"""&gt;"&amp;A99&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#ltwy"&gt;拉脱维亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7363,7 +7767,7 @@
         <v>453</v>
       </c>
       <c r="C100" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B100&amp;"""&gt;"&amp;A100&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#wkl"&gt;乌克兰&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7375,7 +7779,7 @@
         <v>454</v>
       </c>
       <c r="C101" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B101&amp;"""&gt;"&amp;A101&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#bels"&gt;白俄罗斯&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7387,7 +7791,7 @@
         <v>455</v>
       </c>
       <c r="C102" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B102&amp;"""&gt;"&amp;A102&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#medw"&gt;摩尔多瓦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7399,7 +7803,7 @@
         <v>456</v>
       </c>
       <c r="C103" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B103&amp;"""&gt;"&amp;A103&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#met"&gt;马耳他&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7411,7 +7815,7 @@
         <v>457</v>
       </c>
       <c r="C104" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B104&amp;"""&gt;"&amp;A104&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#pty"&gt;葡萄牙&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7423,7 +7827,7 @@
         <v>458</v>
       </c>
       <c r="C105" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B105&amp;"""&gt;"&amp;A105&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#ydl"&gt;意大利&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7435,7 +7839,7 @@
         <v>459</v>
       </c>
       <c r="C106" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B106&amp;"""&gt;"&amp;A106&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#lsb"&gt;卢森堡&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7447,7 +7851,7 @@
         <v>461</v>
       </c>
       <c r="C107" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B107&amp;"""&gt;"&amp;A107&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#xxl"&gt;新西兰&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7459,7 +7863,7 @@
         <v>462</v>
       </c>
       <c r="C108" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B108&amp;"""&gt;"&amp;A108&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#bbyxjny"&gt;巴布亚新几内亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7471,7 +7875,7 @@
         <v>463</v>
       </c>
       <c r="C109" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B109&amp;"""&gt;"&amp;A109&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#smy"&gt;萨摩亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7483,7 +7887,7 @@
         <v>464</v>
       </c>
       <c r="C110" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B110&amp;"""&gt;"&amp;A110&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#na"&gt;纽埃&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7495,7 +7899,7 @@
         <v>465</v>
       </c>
       <c r="C111" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B111&amp;"""&gt;"&amp;A111&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#fj"&gt;斐济&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7507,7 +7911,7 @@
         <v>466</v>
       </c>
       <c r="C112" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B112&amp;"""&gt;"&amp;A112&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#mklnxylb"&gt;密克罗尼西亚联邦&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7519,7 +7923,7 @@
         <v>467</v>
       </c>
       <c r="C113" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B113&amp;"""&gt;"&amp;A113&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#kkqd"&gt;库克群岛&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7531,7 +7935,7 @@
         <v>468</v>
       </c>
       <c r="C114" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B114&amp;"""&gt;"&amp;A114&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#tj"&gt;汤加&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7543,7 +7947,7 @@
         <v>469</v>
       </c>
       <c r="C115" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B115&amp;"""&gt;"&amp;A115&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#wnat"&gt;瓦努阿图&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7555,7 +7959,7 @@
         <v>471</v>
       </c>
       <c r="C116" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B116&amp;"""&gt;"&amp;A116&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#zl"&gt;智利&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7567,7 +7971,7 @@
         <v>472</v>
       </c>
       <c r="C117" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B117&amp;"""&gt;"&amp;A117&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#gyn"&gt;圭亚那&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7579,7 +7983,7 @@
         <v>473</v>
       </c>
       <c r="C118" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B118&amp;"""&gt;"&amp;A118&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#blwy"&gt;玻利维亚&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7591,7 +7995,7 @@
         <v>474</v>
       </c>
       <c r="C119" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B119&amp;"""&gt;"&amp;A119&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#wlg"&gt;乌拉圭&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7603,7 +8007,7 @@
         <v>475</v>
       </c>
       <c r="C120" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B120&amp;"""&gt;"&amp;A120&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#wnrl"&gt;委内瑞拉&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7615,7 +8019,7 @@
         <v>476</v>
       </c>
       <c r="C121" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B121&amp;"""&gt;"&amp;A121&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#sln"&gt;苏里南&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7627,7 +8031,7 @@
         <v>477</v>
       </c>
       <c r="C122" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B122&amp;"""&gt;"&amp;A122&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#egde"&gt;厄瓜多尔&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7639,7 +8043,7 @@
         <v>479</v>
       </c>
       <c r="C123" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B123&amp;"""&gt;"&amp;A123&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#asdlj"&gt;哥斯达黎加&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7651,7 +8055,7 @@
         <v>480</v>
       </c>
       <c r="C124" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B124&amp;"""&gt;"&amp;A124&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#bnm"&gt;巴拿马&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7663,7 +8067,7 @@
         <v>481</v>
       </c>
       <c r="C125" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B125&amp;"""&gt;"&amp;A125&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#sewd"&gt;萨尔瓦多&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7675,7 +8079,7 @@
         <v>482</v>
       </c>
       <c r="C126" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B126&amp;"""&gt;"&amp;A126&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#dmnj"&gt;多米尼加&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7687,7 +8091,7 @@
         <v>483</v>
       </c>
       <c r="C127" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B127&amp;"""&gt;"&amp;A127&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#tlndhdbg"&gt;特立尼达和多巴哥&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7699,7 +8103,7 @@
         <v>484</v>
       </c>
       <c r="C128" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B128&amp;"""&gt;"&amp;A128&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#atghbbd"&gt;安提瓜和巴布达&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7711,7 +8115,7 @@
         <v>485</v>
       </c>
       <c r="C129" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B129&amp;"""&gt;"&amp;A129&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;&lt;a href="#dmnk"&gt;多米尼克&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7723,7 +8127,7 @@
         <v>486</v>
       </c>
       <c r="C130" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B130&amp;"""&gt;"&amp;A130&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="C130:C161" si="4">"&lt;li&gt;&lt;a href=""#"&amp;B130&amp;"""&gt;"&amp;A130&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="#glnd"&gt;格林纳达&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7735,7 +8139,7 @@
         <v>487</v>
       </c>
       <c r="C131" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B131&amp;"""&gt;"&amp;A131&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;&lt;a href="#bbsd"&gt;巴巴多斯&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7747,7 +8151,7 @@
         <v>488</v>
       </c>
       <c r="C132" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B132&amp;"""&gt;"&amp;A132&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;&lt;a href="#gb"&gt;古巴&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
@@ -7759,16 +8163,1702 @@
         <v>489</v>
       </c>
       <c r="C133" t="str">
-        <f>"&lt;li&gt;&lt;a href=""#"&amp;B133&amp;"""&gt;"&amp;A133&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;&lt;a href="#ymj"&gt;牙买加&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C133">
-      <sortCondition sortBy="cellColor" ref="A1" dxfId="1"/>
-    </sortState>
-  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"&lt;div class=""counPart""&gt;&lt;div class=""country"" id="""&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/div&gt;&lt;div class=""desc""&gt;&lt;/div&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sd"&gt;苏丹&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">"&lt;div class=""counPart""&gt;&lt;div class=""country"" id="""&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/div&gt;&lt;div class=""desc""&gt;&lt;/div&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="nf"&gt;南非&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="snje"&gt;塞内加尔&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="slla"&gt;塞拉利昂&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ktdw"&gt;科特迪瓦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sml"&gt;索马里&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kml"&gt;喀麦隆&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="nsd"&gt;南苏丹&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sse"&gt;塞舌尔&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jny"&gt;几内亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jny"&gt;加纳&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="zby"&gt;赞比亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="msbk"&gt;莫桑比克&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jp"&gt;加蓬&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="nmby"&gt;纳米比亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mltny"&gt;毛里塔尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="agl"&gt;安哥拉&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jbl"&gt;吉布提&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="aseby"&gt;埃塞俄比亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kny"&gt;肯尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="nrly"&gt;尼日利亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="zd"&gt;乍得&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ggb"&gt;刚果布&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jbbw"&gt;津巴布韦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="aejly"&gt;阿尔及利亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tsny"&gt;坦桑尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bld"&gt;布隆迪&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="fdj"&gt;佛得角&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wgd"&gt;乌干达&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="gby"&gt;冈比亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="dg"&gt;多哥&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lwd"&gt;卢旺达&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mlg"&gt;摩洛哥&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mdjsj"&gt;马达加斯加&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tns"&gt;突尼斯&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lby"&gt;利比亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="aj"&gt;埃及&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="hg"&gt;韩国&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mg"&gt;蒙古&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="xjp"&gt;新加坡&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ddw"&gt;东帝汶&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mlxy"&gt;马来西亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="md"&gt;缅甸&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jpz"&gt;柬埔寨&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="yn"&gt;越南&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lg"&gt;老挝&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wl"&gt;文莱&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bjst"&gt;巴基斯坦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sllk"&gt;斯里兰卡&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mjlg"&gt;孟加拉国&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="nbe"&gt;尼泊尔&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="medf"&gt;马尔代夫&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="alq"&gt;阿联酋&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kwt"&gt;科威特&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="teq"&gt;土耳其&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kte"&gt;卡塔尔&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="am"&gt;阿曼&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lbn"&gt;黎巴嫩&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="14"/>
+      <c r="B60" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="stalb"&gt;沙特阿拉伯&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="14"/>
+      <c r="B61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bl"&gt;巴林&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="14"/>
+      <c r="B62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="yl"&gt;伊朗&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ylk"&gt;伊拉克&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="14"/>
+      <c r="B64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="afh"&gt;阿富汗&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="asbj"&gt;阿塞拜疆&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="14"/>
+      <c r="B66" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="gljy"&gt;格鲁吉亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="14"/>
+      <c r="B67" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D127" si="1">"&lt;div class=""counPart""&gt;&lt;div class=""country"" id="""&amp;C67&amp;"""&gt;"&amp;B67&amp;"&lt;/div&gt;&lt;div class=""desc""&gt;&lt;/div&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ymny"&gt;亚美尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="14"/>
+      <c r="B68" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="hskst"&gt;哈萨克斯坦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="14"/>
+      <c r="B69" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jejst"&gt;吉尔吉斯斯坦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tjkst"&gt;塔吉克斯坦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="14"/>
+      <c r="B71" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wzbkst"&gt;乌兹别克斯坦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="14"/>
+      <c r="B72" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tg"&gt;泰国&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="14"/>
+      <c r="B73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ydnxy"&gt;印度尼西亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="14"/>
+      <c r="B74" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="flb"&gt;菲律宾&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="el"&gt;俄罗斯&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="14"/>
+      <c r="B76" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="adl"&gt;奥地利&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="14"/>
+      <c r="B77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="xl"&gt;希腊&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="14"/>
+      <c r="B78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bl"&gt;波兰&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="14"/>
+      <c r="B79" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sewy"&gt;塞尔维亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="14"/>
+      <c r="B80" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="jk"&gt;捷克&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="14"/>
+      <c r="B81" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bjly"&gt;保加利亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="14"/>
+      <c r="B82" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="slfk"&gt;斯洛伐克&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="14"/>
+      <c r="B83" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="aebny"&gt;阿尔巴尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="14"/>
+      <c r="B84" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kldy"&gt;克罗地亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="14"/>
+      <c r="B85" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bh"&gt;波黑&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="14"/>
+      <c r="B86" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="hs"&gt;黑山&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="14"/>
+      <c r="B87" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="asny"&gt;爱沙尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="14"/>
+      <c r="B88" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ltw"&gt;立陶宛&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="14"/>
+      <c r="B89" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="slwny"&gt;斯洛文尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="14"/>
+      <c r="B90" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="xyl"&gt;匈牙利&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="14"/>
+      <c r="B91" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mqd"&gt;马其顿&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="14"/>
+      <c r="B92" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lmny"&gt;罗马尼亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="14"/>
+      <c r="B93" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ltwy"&gt;拉脱维亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="14"/>
+      <c r="B94" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wkl"&gt;乌克兰&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="14"/>
+      <c r="B95" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bels"&gt;白俄罗斯&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="14"/>
+      <c r="B96" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="medw"&gt;摩尔多瓦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="14"/>
+      <c r="B97" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="met"&gt;马耳他&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="14"/>
+      <c r="B98" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="pty"&gt;葡萄牙&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="14"/>
+      <c r="B99" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ydl"&gt;意大利&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="14"/>
+      <c r="B100" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="lsb"&gt;卢森堡&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="xxl"&gt;新西兰&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="14"/>
+      <c r="B102" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bbyxjny"&gt;巴布亚新几内亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="14"/>
+      <c r="B103" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="smy"&gt;萨摩亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="14"/>
+      <c r="B104" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="na"&gt;纽埃&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="14"/>
+      <c r="B105" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="fj"&gt;斐济&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="14"/>
+      <c r="B106" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="mklnxylb"&gt;密克罗尼西亚联邦&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="14"/>
+      <c r="B107" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="kkqd"&gt;库克群岛&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="14"/>
+      <c r="B108" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tj"&gt;汤加&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="14"/>
+      <c r="B109" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wnat"&gt;瓦努阿图&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="zl"&gt;智利&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="14"/>
+      <c r="B111" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="gyn"&gt;圭亚那&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A112" s="14"/>
+      <c r="B112" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="blwy"&gt;玻利维亚&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A113" s="14"/>
+      <c r="B113" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wlg"&gt;乌拉圭&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A114" s="14"/>
+      <c r="B114" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="wnrl"&gt;委内瑞拉&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sln"&gt;苏里南&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A116" s="14"/>
+      <c r="B116" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="egde"&gt;厄瓜多尔&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A117" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="asdlj"&gt;哥斯达黎加&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="14"/>
+      <c r="B118" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bnm"&gt;巴拿马&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="14"/>
+      <c r="B119" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="sewd"&gt;萨尔瓦多&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="14"/>
+      <c r="B120" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="dmnj"&gt;多米尼加&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="14"/>
+      <c r="B121" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="tlndhdbg"&gt;特立尼达和多巴哥&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="14"/>
+      <c r="B122" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="atghbbd"&gt;安提瓜和巴布达&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="14"/>
+      <c r="B123" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="dmnk"&gt;多米尼克&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="14"/>
+      <c r="B124" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="glnd"&gt;格林纳达&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="14"/>
+      <c r="B125" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="bbsd"&gt;巴巴多斯&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A126" s="14"/>
+      <c r="B126" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="gb"&gt;古巴&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A127" s="14"/>
+      <c r="B127" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class="counPart"&gt;&lt;div class="country" id="ymj"&gt;牙买加&lt;/div&gt;&lt;div class="desc"&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="A39:A74"/>
+    <mergeCell ref="A75:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A117:A127"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
